--- a/biology/Microbiologie/Bactérie_pourpre_sulfureuse/Bactérie_pourpre_sulfureuse.xlsx
+++ b/biology/Microbiologie/Bactérie_pourpre_sulfureuse/Bactérie_pourpre_sulfureuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_pourpre_sulfureuse</t>
+          <t>Bactérie_pourpre_sulfureuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries pourpres sulfureuses (aussi appelée bactéries phototrophes sulfo-oxydantes et officiellement Chromatiales) font partie de la famille des bactéries photosynthétiques avec les bactéries vertes sulfureuses et les cyanobactéries. Cependant, contrairement aux cyanobactéries, les bactéries pourpres sulfureuses comme les bactéries vertes sulfureuses ne produisent pas d’oxygène lors de la photosynthèse. Dans le cycle du soufre, ces bactéries oxydent le sulfure d'hydrogène (H2S) en soufre élémentaire (Sn).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_pourpre_sulfureuse</t>
+          <t>Bactérie_pourpre_sulfureuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries pourpres sulfureuses sont des γ-protéobactéries, dans les familles Chromatiaceae et les Ectothiorhodospiraceae. Ces bactéries pourpres sulfureuses sont désormais dans l’ordre des Chromatiales, nouveau nom officiel (validé par l'ICSP) de ce groupe de bactéries[2]. Les bactéries pourpres typiques comme Thiospirillum, Thiocapsa et Chromatium se trouvent dans la famille des Chromatiaceae comprenant 22 genres. La famille des Ectothiorhodospiraceae en compte 5.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries pourpres sulfureuses sont des γ-protéobactéries, dans les familles Chromatiaceae et les Ectothiorhodospiraceae. Ces bactéries pourpres sulfureuses sont désormais dans l’ordre des Chromatiales, nouveau nom officiel (validé par l'ICSP) de ce groupe de bactéries. Les bactéries pourpres typiques comme Thiospirillum, Thiocapsa et Chromatium se trouvent dans la famille des Chromatiaceae comprenant 22 genres. La famille des Ectothiorhodospiraceae en compte 5.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_pourpre_sulfureuse</t>
+          <t>Bactérie_pourpre_sulfureuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat
-Ce type de bactéries étant halophile et/ou alcalophile, on les retrouve dans des zones lacustres anaérobies, riche en sulfures[réf. nécessaire]. Quand les conditions du milieu sont idéales, les bactéries pourpres sulfureuses forment des vastes fleurs d’eau[Quoi ?] dans les marécages et les lagunes d’épuration.
-Mobilité
-Les bactéries pourpres sulfureuses sont dotées de flagelles polaires et certaines ont une ciliature péritriche (différents flagelles entourant la bactérie)[réf. nécessaire].
-Métabolisme et photosynthèse anoxygénique
-Ce groupe de bactéries est anaérobie obligatoire ou stricte, généralement photolithotrophe. Elles ont une croissance à la lumière uniquement dans un milieu sans oxygène car celui-ci inhibe la synthèse des pigments des bactéries pourpres sulfureuses.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de bactéries étant halophile et/ou alcalophile, on les retrouve dans des zones lacustres anaérobies, riche en sulfures[réf. nécessaire]. Quand les conditions du milieu sont idéales, les bactéries pourpres sulfureuses forment des vastes fleurs d’eau[Quoi ?] dans les marécages et les lagunes d’épuration.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bactérie_pourpre_sulfureuse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9rie_pourpre_sulfureuse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mobilité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries pourpres sulfureuses sont dotées de flagelles polaires et certaines ont une ciliature péritriche (différents flagelles entourant la bactérie)[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bactérie_pourpre_sulfureuse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9rie_pourpre_sulfureuse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Métabolisme et photosynthèse anoxygénique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce groupe de bactéries est anaérobie obligatoire ou stricte, généralement photolithotrophe. Elles ont une croissance à la lumière uniquement dans un milieu sans oxygène car celui-ci inhibe la synthèse des pigments des bactéries pourpres sulfureuses.
 Elles réalisent une photosynthèse anoxygénique (en absence d’oxygène).
 Ces types de bactéries n'utilisent pas l’eau comme source d’électrons pour amorcer les réactions, elles utilisent alors le sulfure d’hydrogène, le soufre, l’hydrogène ou une matière organique. À la place de produire de l’oxygène comme les plantes, elles forment souvent des granules de soufre. Elles utilisent la lumière comme source d’énergie pour fixer le CO2 (source de carbone). Elles oxydent le sulfure d’hydrogène (H2S) en soufre (S2) et l’accumulent à l’intérieur de la cellule sous la forme de granules de soufre, en général dans des invaginations de la membrane plasmique. 
 n CO2 + 2n H2S + hν → CnH2nOn + n H2O + 2n S
@@ -561,34 +650,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bact%C3%A9rie_pourpre_sulfureuse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bactérie_pourpre_sulfureuse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bact%C3%A9rie_pourpre_sulfureuse</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste de familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Familles validement publiées
-Selon la LPSN  (8 novembre 2022)[3] :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Familles validement publiées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (8 novembre 2022) :
 Chromatiaceae Bavendamm 1924
 Ectothiorhodospiraceae Imhoff 1984
 Granulosicoccaceae Lee et al. 2008
@@ -597,9 +691,43 @@
 Thioalkalispiraceae Mori et al. 2011
 Thioprofundaceae Kojima et al. 2017
 Wenzhouxiangellaceae Wang et al. 2015
-Woeseiaceae Du et al. 2016
-Familles en attente de publication valide
-Selon la LPSN  (8 novembre 2022)[3] :
+Woeseiaceae Du et al. 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bactérie_pourpre_sulfureuse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bact%C3%A9rie_pourpre_sulfureuse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste de familles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Familles en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (8 novembre 2022) :
 « Aquichromatiaceae » Yang et al. 2017
 « Halorhodospiraceae » Imhoff et al. 2022</t>
         </is>
